--- a/Documentation/gantt-chart.xlsx
+++ b/Documentation/gantt-chart.xlsx
@@ -5,23 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/Project4/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/FinalProject/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D676679-A1C8-B34D-971E-C251D055C765}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23D78D1-5788-6042-9222-07A0E2157B86}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="real Gantt Chart" sheetId="3" r:id="rId1"/>
-    <sheet name="projected Gantt Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Projected Gantt Chart" sheetId="3" r:id="rId1"/>
+    <sheet name="Real Gantt Chart" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Real Gantt Chart'!$A$2:$A$19</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Real Gantt Chart'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Real Gantt Chart'!$B$2:$B$19</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Real Gantt Chart'!$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Real Gantt Chart'!$D$2:$D$19</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -48,15 +55,6 @@
   </si>
   <si>
     <t>Code Players/Enemies</t>
-  </si>
-  <si>
-    <t>Debug/Test</t>
-  </si>
-  <si>
-    <t>Game Balancing</t>
-  </si>
-  <si>
-    <t>Publish Project</t>
   </si>
   <si>
     <t>Merge Characters and map</t>
@@ -99,6 +97,18 @@
   </si>
   <si>
     <t>Final Touches on game</t>
+  </si>
+  <si>
+    <t>Item Interaction</t>
+  </si>
+  <si>
+    <t>Test Level</t>
+  </si>
+  <si>
+    <t>UI Overhaul</t>
+  </si>
+  <si>
+    <t>UI/Game Tweaks</t>
   </si>
 </sst>
 </file>
@@ -327,7 +337,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'real Gantt Chart'!$B$1</c:f>
+              <c:f>'Projected Gantt Chart'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -346,7 +356,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'real Gantt Chart'!$A$2:$A$19</c:f>
+              <c:f>'Projected Gantt Chart'!$A$2:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -408,7 +418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'real Gantt Chart'!$B$2:$B$19</c:f>
+              <c:f>'Projected Gantt Chart'!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="18"/>
@@ -480,7 +490,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'real Gantt Chart'!$D$1</c:f>
+              <c:f>'Projected Gantt Chart'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,7 +883,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'real Gantt Chart'!$A$2:$A$19</c:f>
+              <c:f>'Projected Gantt Chart'!$A$2:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
@@ -935,7 +945,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'real Gantt Chart'!$D$2:$D$19</c:f>
+              <c:f>'Projected Gantt Chart'!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1191,19 +1201,64 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gantt Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2237819596874715"/>
-          <c:y val="7.1052278845101499E-2"/>
-          <c:w val="0.7073119914064796"/>
-          <c:h val="0.86647823344158914"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -1213,7 +1268,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'projected Gantt Chart'!$B$1</c:f>
+              <c:f>'Real Gantt Chart'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1232,9 +1287,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'projected Gantt Chart'!$A$2:$A$10</c:f>
+              <c:f>'Real Gantt Chart'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
@@ -1248,23 +1303,56 @@
                   <c:v>Code Players/Enemies</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Game Balancing</c:v>
+                  <c:v>Home, Character, Level UI</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Debug/Test</c:v>
+                  <c:v>Merge Characters and map</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Publish Project</c:v>
+                  <c:v>Stage 2 Planning</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Level Progression</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Animations </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Item Interaction</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>New Enemies</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leaderboards</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pause Menu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Test Level</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>UI Overhaul</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UI/Game Tweaks</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Final Touches on game</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'projected Gantt Chart'!$B$2:$B$10</c:f>
+              <c:f>'Real Gantt Chart'!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>43173</c:v>
                 </c:pt>
@@ -1278,20 +1366,53 @@
                   <c:v>43187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43191</c:v>
+                  <c:v>43192</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43197</c:v>
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43215</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB23-8C4B-BAA9-3082C675A997}"/>
+              <c16:uniqueId val="{00000000-2A12-0942-AB32-AEC79504BA8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1299,7 +1420,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Duration</c:v>
+            <c:strRef>
+              <c:f>'Real Gantt Chart'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1311,11 +1440,332 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-2A12-0942-AB32-AEC79504BA8F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'projected Gantt Chart'!$A$2:$A$10</c:f>
+              <c:f>'Real Gantt Chart'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
@@ -1329,23 +1779,56 @@
                   <c:v>Code Players/Enemies</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Game Balancing</c:v>
+                  <c:v>Home, Character, Level UI</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Debug/Test</c:v>
+                  <c:v>Merge Characters and map</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Publish Project</c:v>
+                  <c:v>Stage 2 Planning</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Level Progression</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Animations </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Item Interaction</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>New Enemies</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Leaderboards</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Pause Menu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Music</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Test Level</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>UI Overhaul</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>UI/Game Tweaks</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Final Touches on game</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'projected Gantt Chart'!$D$2:$D$10</c:f>
+              <c:f>'Real Gantt Chart'!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1353,18 +1836,51 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1372,7 +1888,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EB23-8C4B-BAA9-3082C675A997}"/>
+              <c16:uniqueId val="{00000001-2A12-0942-AB32-AEC79504BA8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1384,13 +1900,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
+        <c:gapWidth val="3"/>
         <c:overlap val="100"/>
-        <c:axId val="406693648"/>
-        <c:axId val="406694040"/>
+        <c:axId val="482235232"/>
+        <c:axId val="427539392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="406693648"/>
+        <c:axId val="482235232"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1433,7 +1949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406694040"/>
+        <c:crossAx val="427539392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1441,10 +1957,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="406694040"/>
+        <c:axId val="427539392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43198"/>
+          <c:max val="43230"/>
           <c:min val="43173"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1494,10 +2010,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406693648"/>
+        <c:crossAx val="482235232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="15"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1509,6 +2024,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2679,23 +3201,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE1AC8E4-7447-2E4F-9EE3-2557198DEB2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3126,7 +3648,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6">
         <v>43192</v>
@@ -3137,7 +3659,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6">
         <v>43194</v>
@@ -3152,7 +3674,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <v>43199</v>
@@ -3167,7 +3689,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="7">
         <v>43204</v>
@@ -3182,7 +3704,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="7">
         <v>43204</v>
@@ -3197,7 +3719,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6">
         <v>43209</v>
@@ -3212,7 +3734,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B12" s="7">
         <v>43209</v>
@@ -3227,7 +3749,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" s="7">
         <v>43209</v>
@@ -3239,7 +3761,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" s="6">
         <v>43213</v>
@@ -3254,7 +3776,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7">
         <v>43213</v>
@@ -3269,7 +3791,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6">
         <v>43216</v>
@@ -3280,7 +3802,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6">
         <v>43216</v>
@@ -3295,7 +3817,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="6">
         <v>43219</v>
@@ -3310,7 +3832,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7">
         <v>43221</v>
@@ -3368,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3437,7 +3959,7 @@
         <v>43207</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3452,7 +3974,7 @@
         <v>43193</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3460,14 +3982,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="6">
-        <v>43191</v>
-      </c>
-      <c r="C6" s="1">
-        <f>B6+11</f>
-        <v>43202</v>
+        <v>43192</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3482,44 +4000,187 @@
         <v>43205</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="6">
+        <v>43199</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8+11</f>
+        <v>43210</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43204</v>
+      </c>
+      <c r="C9" s="3">
+        <f>B9+2</f>
+        <v>43206</v>
+      </c>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43204</v>
+      </c>
+      <c r="C10" s="3">
+        <f>B10+14</f>
+        <v>43218</v>
+      </c>
+      <c r="D10" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7">
-        <v>43197</v>
-      </c>
-      <c r="C8" s="3">
-        <f>B8+2</f>
-        <v>43199</v>
-      </c>
-      <c r="D8" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>43207</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11" si="0">B11+5</f>
+        <v>43212</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7">
+        <v>43209</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12" si="1">B12+11</f>
+        <v>43220</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43212</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43212</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" ref="C14" si="2">B14+6</f>
+        <v>43218</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43213</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3">
-        <f>B9+14</f>
-        <v>14</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="1">
-        <f>B10+6</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6">
+        <v>43215</v>
+      </c>
+      <c r="D16" s="2">
         <v>5</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43219</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:C18" si="3">B17+11</f>
+        <v>43230</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6">
+        <v>43220</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="3"/>
+        <v>43231</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7">
+        <v>43221</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19" si="4">B19+2</f>
+        <v>43223</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
